--- a/data/pca/factorExposure/factorExposure_2014-08-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.008808769641695214</v>
+        <v>0.01901671978970681</v>
       </c>
       <c r="C2">
-        <v>-0.1209444636101532</v>
+        <v>-0.06876080289959369</v>
       </c>
       <c r="D2">
-        <v>0.02001654701973938</v>
+        <v>-0.03139953066157081</v>
       </c>
       <c r="E2">
-        <v>0.2191598556990673</v>
+        <v>0.01151330781146213</v>
       </c>
       <c r="F2">
-        <v>0.04722539897658638</v>
+        <v>-0.04229605532099187</v>
       </c>
       <c r="G2">
-        <v>-0.07386920244072014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1627897393533632</v>
+      </c>
+      <c r="H2">
+        <v>0.02023518560712368</v>
+      </c>
+      <c r="I2">
+        <v>-0.02507438440253101</v>
+      </c>
+      <c r="J2">
+        <v>0.1193137124543056</v>
+      </c>
+      <c r="K2">
+        <v>0.03743386408116192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.0230586314205933</v>
+        <v>0.01906745700370611</v>
       </c>
       <c r="C4">
-        <v>-0.170171635228559</v>
+        <v>-0.142856317188393</v>
       </c>
       <c r="D4">
-        <v>0.03825804828203287</v>
+        <v>-0.0655975659111689</v>
       </c>
       <c r="E4">
-        <v>0.0498180852440071</v>
+        <v>0.01063306507656635</v>
       </c>
       <c r="F4">
-        <v>-0.0649204613161343</v>
+        <v>0.0408425325013333</v>
       </c>
       <c r="G4">
-        <v>0.03010398271613927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0647867727674241</v>
+      </c>
+      <c r="H4">
+        <v>-0.03189372895345207</v>
+      </c>
+      <c r="I4">
+        <v>-0.08391171865728564</v>
+      </c>
+      <c r="J4">
+        <v>0.05940226631036886</v>
+      </c>
+      <c r="K4">
+        <v>-0.01053982051136473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02658018815597216</v>
+        <v>0.03959597351699219</v>
       </c>
       <c r="C6">
-        <v>-0.07714384646299763</v>
+        <v>-0.08584002922117964</v>
       </c>
       <c r="D6">
-        <v>0.05762815622756511</v>
+        <v>-0.02831807019713367</v>
       </c>
       <c r="E6">
-        <v>0.0545439345219503</v>
+        <v>0.01432340138094709</v>
       </c>
       <c r="F6">
-        <v>0.007165165179234607</v>
+        <v>-0.04414000942573328</v>
       </c>
       <c r="G6">
-        <v>0.0543528902423413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02862636129923155</v>
+      </c>
+      <c r="H6">
+        <v>-0.05976320690652681</v>
+      </c>
+      <c r="I6">
+        <v>-0.04548894374559043</v>
+      </c>
+      <c r="J6">
+        <v>-0.04615158461776121</v>
+      </c>
+      <c r="K6">
+        <v>0.03359635392324894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.009640436563561911</v>
+        <v>0.01921288499741689</v>
       </c>
       <c r="C7">
-        <v>-0.07125565756961133</v>
+        <v>-0.06989097840098707</v>
       </c>
       <c r="D7">
-        <v>0.03842784609256521</v>
+        <v>-0.03228984417367952</v>
       </c>
       <c r="E7">
-        <v>0.00997083554438028</v>
+        <v>0.006234883920303027</v>
       </c>
       <c r="F7">
-        <v>-0.01787633328309517</v>
+        <v>0.01716109875632163</v>
       </c>
       <c r="G7">
-        <v>0.04595103142754071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.001461653474373478</v>
+      </c>
+      <c r="H7">
+        <v>-0.03894924887876389</v>
+      </c>
+      <c r="I7">
+        <v>-0.07563994370552889</v>
+      </c>
+      <c r="J7">
+        <v>0.07026497130213198</v>
+      </c>
+      <c r="K7">
+        <v>0.0224512366153441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01058357159676357</v>
+        <v>0.001631848295293151</v>
       </c>
       <c r="C8">
-        <v>-0.07183467101083479</v>
+        <v>-0.06047949803958002</v>
       </c>
       <c r="D8">
-        <v>0.03999196005230463</v>
+        <v>-0.04874521777408289</v>
       </c>
       <c r="E8">
-        <v>0.06357309990557623</v>
+        <v>0.05236840036048446</v>
       </c>
       <c r="F8">
-        <v>-0.008783313538912211</v>
+        <v>-0.01596081417694253</v>
       </c>
       <c r="G8">
-        <v>-0.01297079195837852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05112293802656409</v>
+      </c>
+      <c r="H8">
+        <v>0.008326617522756069</v>
+      </c>
+      <c r="I8">
+        <v>-0.05611149259185902</v>
+      </c>
+      <c r="J8">
+        <v>-0.002059591591330609</v>
+      </c>
+      <c r="K8">
+        <v>-0.008735653066309816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01442144968738033</v>
+        <v>0.01351810896648834</v>
       </c>
       <c r="C9">
-        <v>-0.1210319343554462</v>
+        <v>-0.1003209998163039</v>
       </c>
       <c r="D9">
-        <v>0.05035886930585747</v>
+        <v>-0.04054259003901219</v>
       </c>
       <c r="E9">
-        <v>0.01255879445033807</v>
+        <v>-0.0126251600897827</v>
       </c>
       <c r="F9">
-        <v>-0.006374957928782114</v>
+        <v>0.02026639785516215</v>
       </c>
       <c r="G9">
-        <v>0.03139081168678612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04243435464314908</v>
+      </c>
+      <c r="H9">
+        <v>-0.01594732165996718</v>
+      </c>
+      <c r="I9">
+        <v>-0.08743599553103186</v>
+      </c>
+      <c r="J9">
+        <v>0.06978450444138641</v>
+      </c>
+      <c r="K9">
+        <v>0.01508588238531714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2624584653759517</v>
+        <v>0.2473766666303154</v>
       </c>
       <c r="C10">
-        <v>0.08693358538241308</v>
+        <v>0.09799918280252952</v>
       </c>
       <c r="D10">
-        <v>-0.02763442885874779</v>
+        <v>0.002645891074716835</v>
       </c>
       <c r="E10">
-        <v>-0.03811386133372688</v>
+        <v>0.05372403979058802</v>
       </c>
       <c r="F10">
-        <v>-0.01381301520033416</v>
+        <v>-0.03056539939373866</v>
       </c>
       <c r="G10">
-        <v>-0.01472286415925429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0191929098810459</v>
+      </c>
+      <c r="H10">
+        <v>-0.02618488005149774</v>
+      </c>
+      <c r="I10">
+        <v>-0.03317055023067907</v>
+      </c>
+      <c r="J10">
+        <v>0.0023746194340141</v>
+      </c>
+      <c r="K10">
+        <v>-0.1557045872353738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.006646350786794458</v>
+        <v>0.01722005075919304</v>
       </c>
       <c r="C11">
-        <v>-0.0672020170723041</v>
+        <v>-0.07811146417482949</v>
       </c>
       <c r="D11">
-        <v>0.02971956898080776</v>
+        <v>-0.03770771230584425</v>
       </c>
       <c r="E11">
-        <v>-0.02306704346062327</v>
+        <v>-0.009291078407627527</v>
       </c>
       <c r="F11">
-        <v>-0.008763030316600109</v>
+        <v>0.01045085391413005</v>
       </c>
       <c r="G11">
-        <v>0.03849065181817976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007477816229957514</v>
+      </c>
+      <c r="H11">
+        <v>-0.01261158494671317</v>
+      </c>
+      <c r="I11">
+        <v>-0.03036733536332905</v>
+      </c>
+      <c r="J11">
+        <v>0.02012301429118514</v>
+      </c>
+      <c r="K11">
+        <v>0.02799778922359596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.005393456393090103</v>
+        <v>0.01694376749774812</v>
       </c>
       <c r="C12">
-        <v>-0.04440165284678985</v>
+        <v>-0.05227001853593433</v>
       </c>
       <c r="D12">
-        <v>0.0370038304399495</v>
+        <v>-0.02596483990205864</v>
       </c>
       <c r="E12">
-        <v>-0.01201797012208281</v>
+        <v>-0.01274097810530927</v>
       </c>
       <c r="F12">
-        <v>0.0196840526702475</v>
+        <v>-0.01321095063956686</v>
       </c>
       <c r="G12">
-        <v>0.04516990930643993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003015905568025982</v>
+      </c>
+      <c r="H12">
+        <v>-0.02705717903270414</v>
+      </c>
+      <c r="I12">
+        <v>-0.03148509354713277</v>
+      </c>
+      <c r="J12">
+        <v>0.009409862426342017</v>
+      </c>
+      <c r="K12">
+        <v>0.01217736714402902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01286221594796569</v>
+        <v>0.004392092512481387</v>
       </c>
       <c r="C13">
-        <v>-0.1239858995625263</v>
+        <v>-0.1109954523380092</v>
       </c>
       <c r="D13">
-        <v>0.08298279592469436</v>
+        <v>-0.04225654479543564</v>
       </c>
       <c r="E13">
-        <v>0.05393876332509415</v>
+        <v>0.01242993207869923</v>
       </c>
       <c r="F13">
-        <v>0.07301085560028811</v>
+        <v>-0.1060681980643365</v>
       </c>
       <c r="G13">
-        <v>0.1146858772242773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1225625717326547</v>
+      </c>
+      <c r="H13">
+        <v>-0.1231790995414458</v>
+      </c>
+      <c r="I13">
+        <v>-0.0358743163495227</v>
+      </c>
+      <c r="J13">
+        <v>0.2074535550240147</v>
+      </c>
+      <c r="K13">
+        <v>-0.1349258665483028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01061326036230872</v>
+        <v>0.02070601687774042</v>
       </c>
       <c r="C14">
-        <v>-0.07524805402772079</v>
+        <v>-0.0733202371099624</v>
       </c>
       <c r="D14">
-        <v>0.04159966944066352</v>
+        <v>-0.04780109696366049</v>
       </c>
       <c r="E14">
-        <v>0.03124393630900186</v>
+        <v>0.0001350452221800688</v>
       </c>
       <c r="F14">
-        <v>0.03487929712864588</v>
+        <v>-0.04294098369916418</v>
       </c>
       <c r="G14">
-        <v>0.06821831421075467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.004167460837487489</v>
+      </c>
+      <c r="H14">
+        <v>-0.1112934053629201</v>
+      </c>
+      <c r="I14">
+        <v>-0.1592225259303802</v>
+      </c>
+      <c r="J14">
+        <v>0.08964977116127149</v>
+      </c>
+      <c r="K14">
+        <v>0.01515015003943211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.009857883305708037</v>
+        <v>0.004436080267964865</v>
       </c>
       <c r="C15">
-        <v>-0.0708762114167968</v>
+        <v>-0.07016314985045163</v>
       </c>
       <c r="D15">
-        <v>0.0292354510399569</v>
+        <v>-0.03045151040018163</v>
       </c>
       <c r="E15">
-        <v>0.04388001521268203</v>
+        <v>0.01861614775946143</v>
       </c>
       <c r="F15">
-        <v>-0.01975512610184709</v>
+        <v>0.01182582946412346</v>
       </c>
       <c r="G15">
-        <v>0.02027404351499301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02816133918260411</v>
+      </c>
+      <c r="H15">
+        <v>-0.02768776389111221</v>
+      </c>
+      <c r="I15">
+        <v>-0.06794360566457308</v>
+      </c>
+      <c r="J15">
+        <v>0.02717398399057632</v>
+      </c>
+      <c r="K15">
+        <v>0.02686128921581426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.00910994826894624</v>
+        <v>0.01650188716539797</v>
       </c>
       <c r="C16">
-        <v>-0.05493229832191237</v>
+        <v>-0.06032765041002622</v>
       </c>
       <c r="D16">
-        <v>0.02682023104381944</v>
+        <v>-0.02682595395254521</v>
       </c>
       <c r="E16">
-        <v>-0.01603586422372225</v>
+        <v>-0.01316801258601021</v>
       </c>
       <c r="F16">
-        <v>0.004285857106283745</v>
+        <v>0.006965460676385245</v>
       </c>
       <c r="G16">
-        <v>0.02245848001092404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.001857307199797583</v>
+      </c>
+      <c r="H16">
+        <v>-0.01058234826650907</v>
+      </c>
+      <c r="I16">
+        <v>-0.02295315559871528</v>
+      </c>
+      <c r="J16">
+        <v>0.01141858655649247</v>
+      </c>
+      <c r="K16">
+        <v>0.01940408428109318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01359942664436386</v>
+        <v>0.01571026117456649</v>
       </c>
       <c r="C20">
-        <v>-0.09341639870128214</v>
+        <v>-0.08388250459045785</v>
       </c>
       <c r="D20">
-        <v>0.04266518169469476</v>
+        <v>-0.02668134545986628</v>
       </c>
       <c r="E20">
-        <v>-0.03270503280633551</v>
+        <v>0.01164145909368947</v>
       </c>
       <c r="F20">
-        <v>0.005091925831635304</v>
+        <v>0.0214336464044671</v>
       </c>
       <c r="G20">
-        <v>0.08484071727702877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01213340045712118</v>
+      </c>
+      <c r="H20">
+        <v>-0.04381526480641009</v>
+      </c>
+      <c r="I20">
+        <v>-0.07003852664478503</v>
+      </c>
+      <c r="J20">
+        <v>0.02369241057165063</v>
+      </c>
+      <c r="K20">
+        <v>0.01319558434595883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.003365046089340526</v>
+        <v>0.01395186656010087</v>
       </c>
       <c r="C21">
-        <v>-0.08809261286971284</v>
+        <v>-0.06915314037546101</v>
       </c>
       <c r="D21">
-        <v>-0.01489013707597687</v>
+        <v>-0.01896475014693101</v>
       </c>
       <c r="E21">
-        <v>0.04359622178111975</v>
+        <v>0.008898917065995231</v>
       </c>
       <c r="F21">
-        <v>0.07889490514611069</v>
+        <v>-0.09518797645438695</v>
       </c>
       <c r="G21">
-        <v>0.0184809705224466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02491866603252569</v>
+      </c>
+      <c r="H21">
+        <v>-0.03711988180861174</v>
+      </c>
+      <c r="I21">
+        <v>-0.1064741157065794</v>
+      </c>
+      <c r="J21">
+        <v>0.09525426333322273</v>
+      </c>
+      <c r="K21">
+        <v>-0.002022937452683118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01540675178655557</v>
+        <v>0.007661236215553461</v>
       </c>
       <c r="C22">
-        <v>-0.2373435082348055</v>
+        <v>-0.1732513497521667</v>
       </c>
       <c r="D22">
-        <v>-0.08296883331629171</v>
+        <v>-0.02210276947232665</v>
       </c>
       <c r="E22">
-        <v>0.3160076860433637</v>
+        <v>0.1683837089953124</v>
       </c>
       <c r="F22">
-        <v>-0.3147970582436473</v>
+        <v>0.1035111839275544</v>
       </c>
       <c r="G22">
-        <v>-0.007286152566323035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.4769324796952162</v>
+      </c>
+      <c r="H22">
+        <v>0.0332128630169274</v>
+      </c>
+      <c r="I22">
+        <v>0.3022899272454612</v>
+      </c>
+      <c r="J22">
+        <v>-0.1485359867682478</v>
+      </c>
+      <c r="K22">
+        <v>0.01646213157575669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01634344446702971</v>
+        <v>0.01280601568876672</v>
       </c>
       <c r="C23">
-        <v>-0.2412283402680332</v>
+        <v>-0.1765595149884259</v>
       </c>
       <c r="D23">
-        <v>-0.08766433415061184</v>
+        <v>-0.02160281337090613</v>
       </c>
       <c r="E23">
-        <v>0.3105995735540476</v>
+        <v>0.1601703301906408</v>
       </c>
       <c r="F23">
-        <v>-0.3104175486631154</v>
+        <v>0.1004434484307554</v>
       </c>
       <c r="G23">
-        <v>-0.008478103162415944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.4653864881197629</v>
+      </c>
+      <c r="H23">
+        <v>0.03003293746663439</v>
+      </c>
+      <c r="I23">
+        <v>0.2820117329063294</v>
+      </c>
+      <c r="J23">
+        <v>-0.1371469452776999</v>
+      </c>
+      <c r="K23">
+        <v>0.02129013057850584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.007330189890666339</v>
+        <v>0.01700458768063876</v>
       </c>
       <c r="C24">
-        <v>-0.05860407807507686</v>
+        <v>-0.06323103249905924</v>
       </c>
       <c r="D24">
-        <v>0.04401612291384173</v>
+        <v>-0.04016527961042999</v>
       </c>
       <c r="E24">
-        <v>-0.01449313367438488</v>
+        <v>-0.01021854464174247</v>
       </c>
       <c r="F24">
-        <v>-0.001734199707205714</v>
+        <v>0.009746955190159902</v>
       </c>
       <c r="G24">
-        <v>0.05200175264361193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.000887334433230112</v>
+      </c>
+      <c r="H24">
+        <v>-0.02532217222834311</v>
+      </c>
+      <c r="I24">
+        <v>-0.03643730687103115</v>
+      </c>
+      <c r="J24">
+        <v>0.02616323469273134</v>
+      </c>
+      <c r="K24">
+        <v>0.02469752151212252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007579611590187443</v>
+        <v>0.02118113411174912</v>
       </c>
       <c r="C25">
-        <v>-0.06563735758424684</v>
+        <v>-0.06654505021464531</v>
       </c>
       <c r="D25">
-        <v>0.02234394430850707</v>
+        <v>-0.03257430361846111</v>
       </c>
       <c r="E25">
-        <v>-0.01996933650527543</v>
+        <v>-0.01360204406934433</v>
       </c>
       <c r="F25">
-        <v>0.003802829571644241</v>
+        <v>0.01156327426098498</v>
       </c>
       <c r="G25">
-        <v>0.04743440600887796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003648464816710824</v>
+      </c>
+      <c r="H25">
+        <v>-0.01670136241174277</v>
+      </c>
+      <c r="I25">
+        <v>-0.03528042806255618</v>
+      </c>
+      <c r="J25">
+        <v>0.02308593841268266</v>
+      </c>
+      <c r="K25">
+        <v>0.01157404843161713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.009061851320182598</v>
+        <v>0.02250881296656955</v>
       </c>
       <c r="C26">
-        <v>-0.05108840435014674</v>
+        <v>-0.05496022599256425</v>
       </c>
       <c r="D26">
-        <v>0.0784035248646283</v>
+        <v>-0.06233605583408609</v>
       </c>
       <c r="E26">
-        <v>-0.003523123315136974</v>
+        <v>-0.009993769722727436</v>
       </c>
       <c r="F26">
-        <v>0.03129676903713285</v>
+        <v>0.01417971892548734</v>
       </c>
       <c r="G26">
-        <v>0.05687780904255912</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.003787920709245813</v>
+      </c>
+      <c r="H26">
+        <v>-0.00710051985427044</v>
+      </c>
+      <c r="I26">
+        <v>-0.08794303453681539</v>
+      </c>
+      <c r="J26">
+        <v>0.09195621637575847</v>
+      </c>
+      <c r="K26">
+        <v>0.06011905816860146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3626955196861859</v>
+        <v>0.3099403039537856</v>
       </c>
       <c r="C28">
-        <v>0.09167695316042619</v>
+        <v>0.1144954288963657</v>
       </c>
       <c r="D28">
-        <v>-0.0230919548888109</v>
+        <v>0.03330239563888688</v>
       </c>
       <c r="E28">
-        <v>-0.04842250693816035</v>
+        <v>0.02046409949384639</v>
       </c>
       <c r="F28">
-        <v>0.04658071339844357</v>
+        <v>-0.009643672605370636</v>
       </c>
       <c r="G28">
-        <v>-0.0979988483787194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.04586244537351084</v>
+      </c>
+      <c r="H28">
+        <v>0.1066790309975025</v>
+      </c>
+      <c r="I28">
+        <v>-0.05413489380401639</v>
+      </c>
+      <c r="J28">
+        <v>0.04707710254840545</v>
+      </c>
+      <c r="K28">
+        <v>-0.210665151900753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01059026291624932</v>
+        <v>0.0169178932938031</v>
       </c>
       <c r="C29">
-        <v>-0.08112949302914578</v>
+        <v>-0.08297172855100375</v>
       </c>
       <c r="D29">
-        <v>0.04694118325818925</v>
+        <v>-0.04924380398944306</v>
       </c>
       <c r="E29">
-        <v>0.01067091344130007</v>
+        <v>-0.01924374197881575</v>
       </c>
       <c r="F29">
-        <v>0.04162416002208473</v>
+        <v>-0.03943325077263379</v>
       </c>
       <c r="G29">
-        <v>0.1000212837977886</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.00914134280343222</v>
+      </c>
+      <c r="H29">
+        <v>-0.1688416426632859</v>
+      </c>
+      <c r="I29">
+        <v>-0.2185249546138055</v>
+      </c>
+      <c r="J29">
+        <v>0.1251964918132246</v>
+      </c>
+      <c r="K29">
+        <v>0.0003660796200717058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02762460481588497</v>
+        <v>0.03421796797441038</v>
       </c>
       <c r="C30">
-        <v>-0.1700873029864303</v>
+        <v>-0.1448824418164718</v>
       </c>
       <c r="D30">
-        <v>0.06798183485779261</v>
+        <v>-0.05612193694825739</v>
       </c>
       <c r="E30">
-        <v>0.03810944117614667</v>
+        <v>0.03140741849753446</v>
       </c>
       <c r="F30">
-        <v>-0.04996781250280564</v>
+        <v>0.01366123803095552</v>
       </c>
       <c r="G30">
-        <v>0.03553353724563807</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.04841141526144009</v>
+      </c>
+      <c r="H30">
+        <v>-0.01604444439584093</v>
+      </c>
+      <c r="I30">
+        <v>-0.04183035399666077</v>
+      </c>
+      <c r="J30">
+        <v>-0.002926669919021195</v>
+      </c>
+      <c r="K30">
+        <v>0.04536523807131719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003281405258396112</v>
+        <v>0.01492198240296109</v>
       </c>
       <c r="C31">
-        <v>-0.04744960999576658</v>
+        <v>-0.07600426343077724</v>
       </c>
       <c r="D31">
-        <v>0.03206223671847783</v>
+        <v>-0.04117416688865074</v>
       </c>
       <c r="E31">
-        <v>-0.01106082767130944</v>
+        <v>0.001857077080205858</v>
       </c>
       <c r="F31">
-        <v>0.007240943318019333</v>
+        <v>0.002206034542417379</v>
       </c>
       <c r="G31">
-        <v>0.006343973142388494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.006846130227498856</v>
+      </c>
+      <c r="H31">
+        <v>0.01835458193523257</v>
+      </c>
+      <c r="I31">
+        <v>-0.0400097471883183</v>
+      </c>
+      <c r="J31">
+        <v>0.01932673853849081</v>
+      </c>
+      <c r="K31">
+        <v>0.009988843540250487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01780630714185552</v>
+        <v>0.02230302810280334</v>
       </c>
       <c r="C32">
-        <v>-0.07381432535783854</v>
+        <v>-0.05312359020171983</v>
       </c>
       <c r="D32">
-        <v>0.002828667122907311</v>
+        <v>-0.02486796275980721</v>
       </c>
       <c r="E32">
-        <v>0.151273319741396</v>
+        <v>-0.003262462873380364</v>
       </c>
       <c r="F32">
-        <v>0.008622454149794205</v>
+        <v>-0.05029477663298432</v>
       </c>
       <c r="G32">
-        <v>0.08658714634476755</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.1049156364090951</v>
+      </c>
+      <c r="H32">
+        <v>-0.08880966431711744</v>
+      </c>
+      <c r="I32">
+        <v>-0.1078631290762261</v>
+      </c>
+      <c r="J32">
+        <v>0.1272317761045651</v>
+      </c>
+      <c r="K32">
+        <v>-0.2582300566444561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01234446180829304</v>
+        <v>0.01736513792005093</v>
       </c>
       <c r="C33">
-        <v>-0.09131970546687859</v>
+        <v>-0.1020427532159719</v>
       </c>
       <c r="D33">
-        <v>0.06505178163183969</v>
+        <v>-0.05227466974225068</v>
       </c>
       <c r="E33">
-        <v>0.01079724262288835</v>
+        <v>0.01158824048743829</v>
       </c>
       <c r="F33">
-        <v>0.01353071253643002</v>
+        <v>0.009915909307168416</v>
       </c>
       <c r="G33">
-        <v>0.04154390955057308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01905062001526193</v>
+      </c>
+      <c r="H33">
+        <v>-0.03361548322204171</v>
+      </c>
+      <c r="I33">
+        <v>-0.04552440129106129</v>
+      </c>
+      <c r="J33">
+        <v>0.03926835617535469</v>
+      </c>
+      <c r="K33">
+        <v>-0.01849035090754613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.004543433948985923</v>
+        <v>0.01757316052144802</v>
       </c>
       <c r="C34">
-        <v>-0.05191137110299018</v>
+        <v>-0.04899560095262476</v>
       </c>
       <c r="D34">
-        <v>0.02279435588959915</v>
+        <v>-0.02088234979090057</v>
       </c>
       <c r="E34">
-        <v>-0.006415385510310904</v>
+        <v>-0.01404507636807454</v>
       </c>
       <c r="F34">
-        <v>0.02198007127962475</v>
+        <v>0.001200330353975499</v>
       </c>
       <c r="G34">
-        <v>0.03142872270538186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004179051701966218</v>
+      </c>
+      <c r="H34">
+        <v>-0.02247104084674528</v>
+      </c>
+      <c r="I34">
+        <v>-0.02271953262745784</v>
+      </c>
+      <c r="J34">
+        <v>-0.01732284245177555</v>
+      </c>
+      <c r="K34">
+        <v>0.01385425477587199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003818649288588211</v>
+        <v>0.01045197282765386</v>
       </c>
       <c r="C35">
-        <v>-0.02961001472976911</v>
+        <v>-0.0456974865480906</v>
       </c>
       <c r="D35">
-        <v>0.00847599867840172</v>
+        <v>-0.02179933769340516</v>
       </c>
       <c r="E35">
-        <v>0.004492138997934946</v>
+        <v>0.003825611920212967</v>
       </c>
       <c r="F35">
-        <v>0.01295971789683838</v>
+        <v>-0.009667611586848132</v>
       </c>
       <c r="G35">
-        <v>0.0366783342518703</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.008956823007026561</v>
+      </c>
+      <c r="H35">
+        <v>-0.07445584951839147</v>
+      </c>
+      <c r="I35">
+        <v>-0.1306377002200946</v>
+      </c>
+      <c r="J35">
+        <v>0.05077978250690859</v>
+      </c>
+      <c r="K35">
+        <v>-0.01986418001108194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01038714979346212</v>
+        <v>0.01382443902966187</v>
       </c>
       <c r="C36">
-        <v>-0.05439753633664058</v>
+        <v>-0.04604250117091183</v>
       </c>
       <c r="D36">
-        <v>0.05843247953432974</v>
+        <v>-0.04403087027978532</v>
       </c>
       <c r="E36">
-        <v>-0.00522763386639598</v>
+        <v>0.009242919129487338</v>
       </c>
       <c r="F36">
-        <v>0.01363455950573523</v>
+        <v>0.00520267579771991</v>
       </c>
       <c r="G36">
-        <v>0.03633622370144052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01447329483138316</v>
+      </c>
+      <c r="H36">
+        <v>-0.005666550589970861</v>
+      </c>
+      <c r="I36">
+        <v>-0.06668651722978121</v>
+      </c>
+      <c r="J36">
+        <v>0.06731142492660171</v>
+      </c>
+      <c r="K36">
+        <v>0.01866353005248354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03439494730596299</v>
+        <v>0.009905431200822554</v>
       </c>
       <c r="C38">
-        <v>-0.05168785949756621</v>
+        <v>-0.05845834119425738</v>
       </c>
       <c r="D38">
-        <v>0.04377630517603195</v>
+        <v>-0.03747693486731516</v>
       </c>
       <c r="E38">
-        <v>-0.008797118701810634</v>
+        <v>0.04687902097094868</v>
       </c>
       <c r="F38">
-        <v>0.01561722443685418</v>
+        <v>0.02084702812177463</v>
       </c>
       <c r="G38">
-        <v>0.05341161140731271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.004984386819170301</v>
+      </c>
+      <c r="H38">
+        <v>-0.02808535421735452</v>
+      </c>
+      <c r="I38">
+        <v>-0.05764529536881939</v>
+      </c>
+      <c r="J38">
+        <v>0.04700027070486908</v>
+      </c>
+      <c r="K38">
+        <v>-0.06294647141970877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.006561361928695698</v>
+        <v>0.02472344751168367</v>
       </c>
       <c r="C39">
-        <v>-0.1289466771631412</v>
+        <v>-0.1315442652978885</v>
       </c>
       <c r="D39">
-        <v>0.06013480832223663</v>
+        <v>-0.05940813984806372</v>
       </c>
       <c r="E39">
-        <v>-0.010772599009316</v>
+        <v>0.008194809364118637</v>
       </c>
       <c r="F39">
-        <v>0.01695296972226821</v>
+        <v>-0.01323233009368907</v>
       </c>
       <c r="G39">
-        <v>0.06921642528735886</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01548038100664245</v>
+      </c>
+      <c r="H39">
+        <v>-0.0471937731591963</v>
+      </c>
+      <c r="I39">
+        <v>-0.045300922228958</v>
+      </c>
+      <c r="J39">
+        <v>-0.003461066884871597</v>
+      </c>
+      <c r="K39">
+        <v>0.09248807375618909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.007531828427482229</v>
+        <v>0.01457536219497189</v>
       </c>
       <c r="C40">
-        <v>-0.03926526603084064</v>
+        <v>-0.05891345443479317</v>
       </c>
       <c r="D40">
-        <v>0.03662614812822604</v>
+        <v>-0.0452972960478939</v>
       </c>
       <c r="E40">
-        <v>0.1083163824069349</v>
+        <v>0.004178333409640691</v>
       </c>
       <c r="F40">
-        <v>-0.057925853643351</v>
+        <v>-0.02568695108830554</v>
       </c>
       <c r="G40">
-        <v>0.1011037923872973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0268397768500719</v>
+      </c>
+      <c r="H40">
+        <v>-0.1477644388289595</v>
+      </c>
+      <c r="I40">
+        <v>-0.007473656509477102</v>
+      </c>
+      <c r="J40">
+        <v>0.01918283376972131</v>
+      </c>
+      <c r="K40">
+        <v>0.03333779367884273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01123006472029187</v>
+        <v>0.02200491789702827</v>
       </c>
       <c r="C41">
-        <v>-0.02121360681435657</v>
+        <v>-0.04727854648881349</v>
       </c>
       <c r="D41">
-        <v>0.002836204727627069</v>
+        <v>-0.01481444983054304</v>
       </c>
       <c r="E41">
-        <v>0.001566970103595226</v>
+        <v>-0.006198056235653079</v>
       </c>
       <c r="F41">
-        <v>0.008118525413975446</v>
+        <v>-0.001444484731815875</v>
       </c>
       <c r="G41">
-        <v>-0.0440743705589149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01389909695998334</v>
+      </c>
+      <c r="H41">
+        <v>0.003959783221053723</v>
+      </c>
+      <c r="I41">
+        <v>-0.01715559512631825</v>
+      </c>
+      <c r="J41">
+        <v>0.02582776608157405</v>
+      </c>
+      <c r="K41">
+        <v>-0.02844540806155361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.005900215565327833</v>
+        <v>0.01921472626151141</v>
       </c>
       <c r="C43">
-        <v>-0.02409798272012623</v>
+        <v>-0.04501528948228288</v>
       </c>
       <c r="D43">
-        <v>0.02259854185631712</v>
+        <v>-0.02915609916695758</v>
       </c>
       <c r="E43">
-        <v>-0.002521997555672793</v>
+        <v>0.003411138605332262</v>
       </c>
       <c r="F43">
-        <v>0.0002478293924806176</v>
+        <v>0.009516926681886572</v>
       </c>
       <c r="G43">
-        <v>-0.003874799214970776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.009608989520626846</v>
+      </c>
+      <c r="H43">
+        <v>-0.008271931255735153</v>
+      </c>
+      <c r="I43">
+        <v>-0.02856960964017186</v>
+      </c>
+      <c r="J43">
+        <v>0.02758821773609084</v>
+      </c>
+      <c r="K43">
+        <v>0.001227003189414943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02354464809630251</v>
+        <v>0.01704642621044926</v>
       </c>
       <c r="C44">
-        <v>-0.1003476323191349</v>
+        <v>-0.09867756173614609</v>
       </c>
       <c r="D44">
-        <v>0.03366067533198075</v>
+        <v>-0.05763795865254589</v>
       </c>
       <c r="E44">
-        <v>0.02117726721322426</v>
+        <v>0.0476794899054339</v>
       </c>
       <c r="F44">
-        <v>-0.01670761091111551</v>
+        <v>0.02519365375324755</v>
       </c>
       <c r="G44">
-        <v>0.0735840796483602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.05005556351382189</v>
+      </c>
+      <c r="H44">
+        <v>-0.05368868240253349</v>
+      </c>
+      <c r="I44">
+        <v>-0.02290524611528534</v>
+      </c>
+      <c r="J44">
+        <v>0.03589954040317642</v>
+      </c>
+      <c r="K44">
+        <v>0.05226122223274828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.002879996767427952</v>
+        <v>0.004825569355522576</v>
       </c>
       <c r="C46">
-        <v>-0.06217991075135234</v>
+        <v>-0.06519470121772279</v>
       </c>
       <c r="D46">
-        <v>0.04565328700224836</v>
+        <v>-0.02863699800347414</v>
       </c>
       <c r="E46">
-        <v>0.01557192441148737</v>
+        <v>0.002536131714611908</v>
       </c>
       <c r="F46">
-        <v>0.01537990345687703</v>
+        <v>-0.0075517581455257</v>
       </c>
       <c r="G46">
-        <v>0.04029377724601361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.003533248365481657</v>
+      </c>
+      <c r="H46">
+        <v>-0.04665851715078296</v>
+      </c>
+      <c r="I46">
+        <v>-0.06615691036660436</v>
+      </c>
+      <c r="J46">
+        <v>0.07033711818720634</v>
+      </c>
+      <c r="K46">
+        <v>0.01336907135719136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.006738099978678847</v>
+        <v>0.02233922308521057</v>
       </c>
       <c r="C47">
-        <v>-0.05607575310732015</v>
+        <v>-0.07287709493221785</v>
       </c>
       <c r="D47">
-        <v>0.05727610593287145</v>
+        <v>-0.04364858415232165</v>
       </c>
       <c r="E47">
-        <v>-0.01986240013607712</v>
+        <v>-0.01430395966215717</v>
       </c>
       <c r="F47">
-        <v>0.05120996927104511</v>
+        <v>0.001516823129032211</v>
       </c>
       <c r="G47">
-        <v>0.01472118821034864</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008951778553740311</v>
+      </c>
+      <c r="H47">
+        <v>-0.01408750645022521</v>
+      </c>
+      <c r="I47">
+        <v>-0.05670198341816483</v>
+      </c>
+      <c r="J47">
+        <v>0.04928908863514028</v>
+      </c>
+      <c r="K47">
+        <v>-0.01950047386924278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.006787047255201949</v>
+        <v>0.01642659949034149</v>
       </c>
       <c r="C48">
-        <v>-0.0566030827358245</v>
+        <v>-0.04573105125612544</v>
       </c>
       <c r="D48">
-        <v>0.0658729187467597</v>
+        <v>-0.05306232786698278</v>
       </c>
       <c r="E48">
-        <v>-0.009840832054809793</v>
+        <v>-0.00846188815285266</v>
       </c>
       <c r="F48">
-        <v>-0.002206289653555714</v>
+        <v>0.02051779522783462</v>
       </c>
       <c r="G48">
-        <v>0.04328134577151446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02194127310620033</v>
+      </c>
+      <c r="H48">
+        <v>-0.006887305336964131</v>
+      </c>
+      <c r="I48">
+        <v>-0.09434039063798649</v>
+      </c>
+      <c r="J48">
+        <v>0.08923685803213773</v>
+      </c>
+      <c r="K48">
+        <v>0.03903459175167522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02098585999523239</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04982147048731093</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.009136183604140358</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02849420495784036</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.003503063975104734</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.07257425200312075</v>
+      </c>
+      <c r="H49">
+        <v>-0.05237144824437757</v>
+      </c>
+      <c r="I49">
+        <v>0.00865271363683098</v>
+      </c>
+      <c r="J49">
+        <v>-0.1122588645664488</v>
+      </c>
+      <c r="K49">
+        <v>0.05157184264440744</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.001756386600690507</v>
+        <v>0.01573859806472658</v>
       </c>
       <c r="C50">
-        <v>-0.05925673869591295</v>
+        <v>-0.07560422352919476</v>
       </c>
       <c r="D50">
-        <v>0.02685198188459154</v>
+        <v>-0.03266810824209305</v>
       </c>
       <c r="E50">
-        <v>0.00318560408072966</v>
+        <v>-0.0009074573635572386</v>
       </c>
       <c r="F50">
-        <v>-0.009159644935973956</v>
+        <v>0.0145440148429769</v>
       </c>
       <c r="G50">
-        <v>0.01935167195020348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01579987495247771</v>
+      </c>
+      <c r="H50">
+        <v>-0.002455949789149483</v>
+      </c>
+      <c r="I50">
+        <v>-0.06504658906242017</v>
+      </c>
+      <c r="J50">
+        <v>0.0222398697649364</v>
+      </c>
+      <c r="K50">
+        <v>-0.05240514885351609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.007371109739417626</v>
+        <v>-0.004168738770576946</v>
       </c>
       <c r="C51">
-        <v>-0.07489072432832632</v>
+        <v>-0.03598272726024937</v>
       </c>
       <c r="D51">
-        <v>0.04394277556176904</v>
+        <v>-0.02659426942122125</v>
       </c>
       <c r="E51">
-        <v>0.02916515873570992</v>
+        <v>0.02965875205513365</v>
       </c>
       <c r="F51">
-        <v>0.003295921562333514</v>
+        <v>-0.01361869925418611</v>
       </c>
       <c r="G51">
-        <v>0.002318401704294299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02089422108005792</v>
+      </c>
+      <c r="H51">
+        <v>-0.03171065134677115</v>
+      </c>
+      <c r="I51">
+        <v>-0.06399719746561171</v>
+      </c>
+      <c r="J51">
+        <v>0.0896608082989231</v>
+      </c>
+      <c r="K51">
+        <v>0.03515552284381548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03174997847278086</v>
+        <v>0.06112791291200707</v>
       </c>
       <c r="C53">
-        <v>-0.113532756779945</v>
+        <v>-0.1307937212666272</v>
       </c>
       <c r="D53">
-        <v>0.06512201816610112</v>
+        <v>-0.0569120544394435</v>
       </c>
       <c r="E53">
-        <v>-0.1222249018717915</v>
+        <v>-0.04318347145801232</v>
       </c>
       <c r="F53">
-        <v>0.02783134870844562</v>
+        <v>-0.01435190520641951</v>
       </c>
       <c r="G53">
-        <v>-0.101070400316177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05169369741781753</v>
+      </c>
+      <c r="H53">
+        <v>0.09055778242240357</v>
+      </c>
+      <c r="I53">
+        <v>0.009771217347701162</v>
+      </c>
+      <c r="J53">
+        <v>0.0004345455837252305</v>
+      </c>
+      <c r="K53">
+        <v>-0.0183554594470277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.004423349788871133</v>
+        <v>0.0163454879986913</v>
       </c>
       <c r="C54">
-        <v>-0.07088711291658613</v>
+        <v>-0.07148563686747202</v>
       </c>
       <c r="D54">
-        <v>0.01336360973028181</v>
+        <v>-0.01224446653054648</v>
       </c>
       <c r="E54">
-        <v>-0.02376543059550577</v>
+        <v>-0.01353283786924589</v>
       </c>
       <c r="F54">
-        <v>0.001200032221585212</v>
+        <v>0.005584633086682078</v>
       </c>
       <c r="G54">
-        <v>0.02396854689628491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.001263873249121346</v>
+      </c>
+      <c r="H54">
+        <v>-0.02178384165707591</v>
+      </c>
+      <c r="I54">
+        <v>-0.04467677237228536</v>
+      </c>
+      <c r="J54">
+        <v>0.03986022163150008</v>
+      </c>
+      <c r="K54">
+        <v>0.02483183411522756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01170191139199347</v>
+        <v>0.03099875607625155</v>
       </c>
       <c r="C55">
-        <v>-0.07337542863443366</v>
+        <v>-0.0825621939809154</v>
       </c>
       <c r="D55">
-        <v>0.05993502870862329</v>
+        <v>-0.05306652031274676</v>
       </c>
       <c r="E55">
-        <v>-0.05963212339212979</v>
+        <v>-0.03641207722219652</v>
       </c>
       <c r="F55">
-        <v>0.02482242804373042</v>
+        <v>0.0003439590564526393</v>
       </c>
       <c r="G55">
-        <v>-0.03201889631717199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0327673077230517</v>
+      </c>
+      <c r="H55">
+        <v>0.03798750321384112</v>
+      </c>
+      <c r="I55">
+        <v>0.003373196398172045</v>
+      </c>
+      <c r="J55">
+        <v>0.01082397234224954</v>
+      </c>
+      <c r="K55">
+        <v>0.01142200203686791</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01373742638977312</v>
+        <v>0.04943990273251228</v>
       </c>
       <c r="C56">
-        <v>-0.1443607248574894</v>
+        <v>-0.15312977772069</v>
       </c>
       <c r="D56">
-        <v>0.06536901290916994</v>
+        <v>-0.08032664749785091</v>
       </c>
       <c r="E56">
-        <v>-0.09609365545922322</v>
+        <v>-0.08917084254354733</v>
       </c>
       <c r="F56">
-        <v>0.05239305322743553</v>
+        <v>-0.03956647390057803</v>
       </c>
       <c r="G56">
-        <v>-0.1411785074596496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.06994769920588229</v>
+      </c>
+      <c r="H56">
+        <v>0.1616627372526586</v>
+      </c>
+      <c r="I56">
+        <v>0.002758259583295408</v>
+      </c>
+      <c r="J56">
+        <v>-0.02193568720449843</v>
+      </c>
+      <c r="K56">
+        <v>-0.001866651619827877</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03208709381712341</v>
+        <v>0.01894812377956546</v>
       </c>
       <c r="C58">
-        <v>-0.2873155763269294</v>
+        <v>-0.1747164542425097</v>
       </c>
       <c r="D58">
-        <v>-0.02373515142545202</v>
+        <v>-0.0436619518741981</v>
       </c>
       <c r="E58">
-        <v>0.164262542859174</v>
+        <v>0.2208780989844271</v>
       </c>
       <c r="F58">
-        <v>-0.2341624216942619</v>
+        <v>0.02169754127645671</v>
       </c>
       <c r="G58">
-        <v>0.004478234478283826</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2916820645254863</v>
+      </c>
+      <c r="H58">
+        <v>0.06249137089354349</v>
+      </c>
+      <c r="I58">
+        <v>-0.00797204548597371</v>
+      </c>
+      <c r="J58">
+        <v>0.1508410377581686</v>
+      </c>
+      <c r="K58">
+        <v>-0.06830806453229436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2888426928157998</v>
+        <v>0.2886775166161757</v>
       </c>
       <c r="C59">
-        <v>0.004854000710802624</v>
+        <v>0.05265194729586271</v>
       </c>
       <c r="D59">
-        <v>-0.008117340820069546</v>
+        <v>0.005970481188279966</v>
       </c>
       <c r="E59">
-        <v>0.05425661981623819</v>
+        <v>0.0169980011546137</v>
       </c>
       <c r="F59">
-        <v>0.04683086569169854</v>
+        <v>-0.01817218517702523</v>
       </c>
       <c r="G59">
-        <v>-0.01618801191712058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.04867298200366632</v>
+      </c>
+      <c r="H59">
+        <v>0.01091336369560251</v>
+      </c>
+      <c r="I59">
+        <v>0.02564758043367746</v>
+      </c>
+      <c r="J59">
+        <v>-0.005320856815881382</v>
+      </c>
+      <c r="K59">
+        <v>-0.03953567292989037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1121404500870366</v>
+        <v>0.1525810457089432</v>
       </c>
       <c r="C60">
-        <v>-0.1505298859971863</v>
+        <v>-0.1600172198404525</v>
       </c>
       <c r="D60">
-        <v>0.09283181427134866</v>
+        <v>-0.04025106874321523</v>
       </c>
       <c r="E60">
-        <v>-0.1179910229005482</v>
+        <v>-0.1625709740569555</v>
       </c>
       <c r="F60">
-        <v>0.2072414145588495</v>
+        <v>-0.005099066415159749</v>
       </c>
       <c r="G60">
-        <v>0.2247012671221309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.08972094125539144</v>
+      </c>
+      <c r="H60">
+        <v>-0.2142990048794637</v>
+      </c>
+      <c r="I60">
+        <v>0.2347855790541609</v>
+      </c>
+      <c r="J60">
+        <v>-0.09487175947880355</v>
+      </c>
+      <c r="K60">
+        <v>0.031708273128144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006354865952482541</v>
+        <v>0.02501117548931423</v>
       </c>
       <c r="C61">
-        <v>-0.08308479551286559</v>
+        <v>-0.0985116095173704</v>
       </c>
       <c r="D61">
-        <v>0.06823360306050583</v>
+        <v>-0.05403965002406652</v>
       </c>
       <c r="E61">
-        <v>-0.02657768649201344</v>
+        <v>-0.01631093742049576</v>
       </c>
       <c r="F61">
-        <v>0.03522858900786495</v>
+        <v>-0.001853829018896649</v>
       </c>
       <c r="G61">
-        <v>0.07336862394129885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02333164673495784</v>
+      </c>
+      <c r="H61">
+        <v>-0.03316154402436326</v>
+      </c>
+      <c r="I61">
+        <v>-0.06023475088655693</v>
+      </c>
+      <c r="J61">
+        <v>-0.0008575445489617286</v>
+      </c>
+      <c r="K61">
+        <v>0.03398147663422874</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002871403267214856</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01488388596286484</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003229561537562154</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01620145444781688</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.02304239846891583</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02510607538164747</v>
+      </c>
+      <c r="H62">
+        <v>-0.01962895128018929</v>
+      </c>
+      <c r="I62">
+        <v>-0.01836868297174655</v>
+      </c>
+      <c r="J62">
+        <v>-0.00372674538181484</v>
+      </c>
+      <c r="K62">
+        <v>-0.009091842374914991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0002331141745840577</v>
+        <v>0.02700769157441422</v>
       </c>
       <c r="C63">
-        <v>-0.05896186013381645</v>
+        <v>-0.06362826733368035</v>
       </c>
       <c r="D63">
-        <v>0.0382763523592376</v>
+        <v>-0.05882705622819834</v>
       </c>
       <c r="E63">
-        <v>-0.01905861892055524</v>
+        <v>-0.01454127579588131</v>
       </c>
       <c r="F63">
-        <v>0.003006210581995615</v>
+        <v>0.0007188593910478612</v>
       </c>
       <c r="G63">
-        <v>0.002013094109215212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.003408835044404375</v>
+      </c>
+      <c r="H63">
+        <v>-0.007616567358701257</v>
+      </c>
+      <c r="I63">
+        <v>-0.06792663629331942</v>
+      </c>
+      <c r="J63">
+        <v>0.02358348917754207</v>
+      </c>
+      <c r="K63">
+        <v>0.01445661339930971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.00094724951576181</v>
+        <v>0.01797528561547908</v>
       </c>
       <c r="C64">
-        <v>-0.08557011945767908</v>
+        <v>-0.09188372293182563</v>
       </c>
       <c r="D64">
-        <v>0.06839103285663664</v>
+        <v>-0.03464796958651619</v>
       </c>
       <c r="E64">
-        <v>-0.008200965629247894</v>
+        <v>-0.01419110038678819</v>
       </c>
       <c r="F64">
-        <v>-0.008451755424490913</v>
+        <v>0.04304313859948424</v>
       </c>
       <c r="G64">
-        <v>0.05064857376834603</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.03694422131018109</v>
+      </c>
+      <c r="H64">
+        <v>-0.06563359255013568</v>
+      </c>
+      <c r="I64">
+        <v>-0.04241914988834232</v>
+      </c>
+      <c r="J64">
+        <v>0.01571945663520419</v>
+      </c>
+      <c r="K64">
+        <v>0.07869702842020883</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.008525792068455844</v>
+        <v>0.03307894610508762</v>
       </c>
       <c r="C65">
-        <v>-0.09019574884156321</v>
+        <v>-0.09296489794912186</v>
       </c>
       <c r="D65">
-        <v>0.03799202099982864</v>
+        <v>-0.02278507728489673</v>
       </c>
       <c r="E65">
-        <v>0.01669299731576924</v>
+        <v>0.001195882863078482</v>
       </c>
       <c r="F65">
-        <v>0.02104394022984058</v>
+        <v>0.01609882360632579</v>
       </c>
       <c r="G65">
-        <v>0.07779074870672405</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.001179040934845325</v>
+      </c>
+      <c r="H65">
+        <v>-0.09052136814964075</v>
+      </c>
+      <c r="I65">
+        <v>0.0107444168412938</v>
+      </c>
+      <c r="J65">
+        <v>-0.01134390952071272</v>
+      </c>
+      <c r="K65">
+        <v>0.06173204818274929</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.004431771485405925</v>
+        <v>0.02214431834450776</v>
       </c>
       <c r="C66">
-        <v>-0.1716138970090673</v>
+        <v>-0.1707269302604901</v>
       </c>
       <c r="D66">
-        <v>0.05045840865068889</v>
+        <v>-0.05078269888682511</v>
       </c>
       <c r="E66">
-        <v>0.02648390135774095</v>
+        <v>0.002867812638385235</v>
       </c>
       <c r="F66">
-        <v>0.03107627587941306</v>
+        <v>-0.01430991226138995</v>
       </c>
       <c r="G66">
-        <v>0.09199850169737943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.004821491164113754</v>
+      </c>
+      <c r="H66">
+        <v>-0.03989655560802153</v>
+      </c>
+      <c r="I66">
+        <v>-0.06648480768341296</v>
+      </c>
+      <c r="J66">
+        <v>-0.01080800096728416</v>
+      </c>
+      <c r="K66">
+        <v>0.06586302778039721</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03441130350375383</v>
+        <v>0.01944764772073632</v>
       </c>
       <c r="C67">
-        <v>-0.02904091732064403</v>
+        <v>-0.05102084281073634</v>
       </c>
       <c r="D67">
-        <v>0.06109875072333928</v>
+        <v>-0.03884346272113812</v>
       </c>
       <c r="E67">
-        <v>-0.04084179520245286</v>
+        <v>0.02812047842789221</v>
       </c>
       <c r="F67">
-        <v>0.03032288594014372</v>
+        <v>0.01589000600693704</v>
       </c>
       <c r="G67">
-        <v>0.06080259177816203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02560374354383747</v>
+      </c>
+      <c r="H67">
+        <v>-0.04713842715815663</v>
+      </c>
+      <c r="I67">
+        <v>-0.02232319941454609</v>
+      </c>
+      <c r="J67">
+        <v>0.0546044476797208</v>
+      </c>
+      <c r="K67">
+        <v>-0.0443171395097692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.295170042692558</v>
+        <v>0.2927885284614818</v>
       </c>
       <c r="C68">
-        <v>0.02553338693300459</v>
+        <v>0.07759111667224518</v>
       </c>
       <c r="D68">
-        <v>0.001996748913052219</v>
+        <v>0.02617178179308245</v>
       </c>
       <c r="E68">
-        <v>0.02288073412246542</v>
+        <v>-0.008273285536424426</v>
       </c>
       <c r="F68">
-        <v>0.001379597983477817</v>
+        <v>0.005563654522658286</v>
       </c>
       <c r="G68">
-        <v>0.008976858834440361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0478156606186891</v>
+      </c>
+      <c r="H68">
+        <v>0.0205618418998565</v>
+      </c>
+      <c r="I68">
+        <v>-0.03130267811622781</v>
+      </c>
+      <c r="J68">
+        <v>0.020897710164103</v>
+      </c>
+      <c r="K68">
+        <v>-0.04488269819247492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01103610272878947</v>
+        <v>0.0103975317655056</v>
       </c>
       <c r="C69">
-        <v>-0.05435106919018514</v>
+        <v>-0.04618129685704615</v>
       </c>
       <c r="D69">
-        <v>0.05705149109806845</v>
+        <v>-0.02504134488317515</v>
       </c>
       <c r="E69">
-        <v>-0.02916728599335247</v>
+        <v>0.002389640433324843</v>
       </c>
       <c r="F69">
-        <v>0.003586545124665043</v>
+        <v>-0.01001719449692347</v>
       </c>
       <c r="G69">
-        <v>0.02412821733608379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01123599626956156</v>
+      </c>
+      <c r="H69">
+        <v>-0.02064580598960274</v>
+      </c>
+      <c r="I69">
+        <v>-0.01255035462700534</v>
+      </c>
+      <c r="J69">
+        <v>0.03673625619734572</v>
+      </c>
+      <c r="K69">
+        <v>-0.02444536159949899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.287170433402711</v>
+        <v>0.2742691629815517</v>
       </c>
       <c r="C71">
-        <v>0.04330524812137666</v>
+        <v>0.08079441036722849</v>
       </c>
       <c r="D71">
-        <v>-0.0136707101345517</v>
+        <v>0.02266131876756572</v>
       </c>
       <c r="E71">
-        <v>0.02477342384029328</v>
+        <v>0.03055271849760611</v>
       </c>
       <c r="F71">
-        <v>-0.01868017256113679</v>
+        <v>0.01524132696100024</v>
       </c>
       <c r="G71">
-        <v>0.001762783432252123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.06058045207633348</v>
+      </c>
+      <c r="H71">
+        <v>0.01687176944247985</v>
+      </c>
+      <c r="I71">
+        <v>-0.03710457088008832</v>
+      </c>
+      <c r="J71">
+        <v>0.04531519364648028</v>
+      </c>
+      <c r="K71">
+        <v>-0.1102723037997837</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.009338621027017803</v>
+        <v>0.05314193622716227</v>
       </c>
       <c r="C72">
-        <v>-0.1482569512257899</v>
+        <v>-0.138207566493981</v>
       </c>
       <c r="D72">
-        <v>0.07386366856962902</v>
+        <v>-0.05034045062172646</v>
       </c>
       <c r="E72">
-        <v>-0.006676214497598457</v>
+        <v>-0.06275460308010566</v>
       </c>
       <c r="F72">
-        <v>-0.03404827460430296</v>
+        <v>0.00308380170909566</v>
       </c>
       <c r="G72">
-        <v>0.09835167517854822</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.008525344277923308</v>
+      </c>
+      <c r="H72">
+        <v>0.003240642714366356</v>
+      </c>
+      <c r="I72">
+        <v>-0.05246247558874333</v>
+      </c>
+      <c r="J72">
+        <v>0.02423929111795996</v>
+      </c>
+      <c r="K72">
+        <v>0.1089154527119558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07756709270468894</v>
+        <v>0.157245870166036</v>
       </c>
       <c r="C73">
-        <v>-0.1093527852432608</v>
+        <v>-0.1962547645930844</v>
       </c>
       <c r="D73">
-        <v>0.1366491533427054</v>
+        <v>-0.08451859909212468</v>
       </c>
       <c r="E73">
-        <v>-0.1964836007314361</v>
+        <v>-0.1310859916548561</v>
       </c>
       <c r="F73">
-        <v>0.2496514582242769</v>
+        <v>0.002038601231099012</v>
       </c>
       <c r="G73">
-        <v>0.3062732436718646</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2159044645124403</v>
+      </c>
+      <c r="H73">
+        <v>-0.3317111351493964</v>
+      </c>
+      <c r="I73">
+        <v>0.3290132033480945</v>
+      </c>
+      <c r="J73">
+        <v>-0.09603756110345091</v>
+      </c>
+      <c r="K73">
+        <v>-0.1243417205062003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01355954836885796</v>
+        <v>0.03895268692446559</v>
       </c>
       <c r="C74">
-        <v>-0.08092067579971689</v>
+        <v>-0.09713863068550484</v>
       </c>
       <c r="D74">
-        <v>0.06829431414739663</v>
+        <v>-0.04491827867702863</v>
       </c>
       <c r="E74">
-        <v>-0.0637031731417548</v>
+        <v>-0.03668450644599537</v>
       </c>
       <c r="F74">
-        <v>0.03341651861471152</v>
+        <v>0.01913946104805567</v>
       </c>
       <c r="G74">
-        <v>-0.0563901997733092</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01705515367979444</v>
+      </c>
+      <c r="H74">
+        <v>0.05119797326269548</v>
+      </c>
+      <c r="I74">
+        <v>-0.007463487630459606</v>
+      </c>
+      <c r="J74">
+        <v>0.03068827770974505</v>
+      </c>
+      <c r="K74">
+        <v>0.01448799687429489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03927323029519637</v>
+        <v>0.06364969149331336</v>
       </c>
       <c r="C75">
-        <v>-0.138875607933096</v>
+        <v>-0.1632891213924809</v>
       </c>
       <c r="D75">
-        <v>0.07095434573770235</v>
+        <v>-0.08159441240632416</v>
       </c>
       <c r="E75">
-        <v>-0.1456452229050229</v>
+        <v>-0.05049444478324963</v>
       </c>
       <c r="F75">
-        <v>0.00710395670000514</v>
+        <v>0.03296693880943277</v>
       </c>
       <c r="G75">
-        <v>-0.1938353391885396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.09523827636150983</v>
+      </c>
+      <c r="H75">
+        <v>0.2205574991637831</v>
+      </c>
+      <c r="I75">
+        <v>-0.03472883684822672</v>
+      </c>
+      <c r="J75">
+        <v>-0.01823741577245677</v>
+      </c>
+      <c r="K75">
+        <v>-0.1266883198995077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01442279608696758</v>
+        <v>0.04581545314218961</v>
       </c>
       <c r="C76">
-        <v>-0.1042287026844399</v>
+        <v>-0.124826196154599</v>
       </c>
       <c r="D76">
-        <v>0.06024207598152475</v>
+        <v>-0.07367978401993441</v>
       </c>
       <c r="E76">
-        <v>-0.08685647237220555</v>
+        <v>-0.03762931277493612</v>
       </c>
       <c r="F76">
-        <v>0.04090077087370395</v>
+        <v>-0.01156332958783622</v>
       </c>
       <c r="G76">
-        <v>-0.06773893811918642</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07590003521665639</v>
+      </c>
+      <c r="H76">
+        <v>0.07982005881752488</v>
+      </c>
+      <c r="I76">
+        <v>-0.01204297719599506</v>
+      </c>
+      <c r="J76">
+        <v>-0.03311453370639772</v>
+      </c>
+      <c r="K76">
+        <v>0.02683388306436665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09340845074624429</v>
+        <v>0.0553390195210052</v>
       </c>
       <c r="C77">
-        <v>-0.3660663854095772</v>
+        <v>-0.4018177668045682</v>
       </c>
       <c r="D77">
-        <v>-0.8369287787877359</v>
+        <v>0.8987345550099899</v>
       </c>
       <c r="E77">
-        <v>-0.2901204635781183</v>
+        <v>-0.009105032686772553</v>
       </c>
       <c r="F77">
-        <v>0.1157020915557782</v>
+        <v>0.02493880919112694</v>
       </c>
       <c r="G77">
-        <v>0.02172509940738547</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.07117619529343212</v>
+      </c>
+      <c r="H77">
+        <v>0.02748996822350939</v>
+      </c>
+      <c r="I77">
+        <v>-0.08115894230400755</v>
+      </c>
+      <c r="J77">
+        <v>-0.01785322824842727</v>
+      </c>
+      <c r="K77">
+        <v>-0.02337898632005055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03210684544584665</v>
+        <v>0.03911787406924223</v>
       </c>
       <c r="C78">
-        <v>-0.122688452110304</v>
+        <v>-0.1130160366698512</v>
       </c>
       <c r="D78">
-        <v>0.1732156845770129</v>
+        <v>-0.09384416896621157</v>
       </c>
       <c r="E78">
-        <v>0.08475683929437439</v>
+        <v>0.018139654354571</v>
       </c>
       <c r="F78">
-        <v>0.1267390676987519</v>
+        <v>-0.05157394858198347</v>
       </c>
       <c r="G78">
-        <v>-0.1289188849741321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.00843736776863452</v>
+      </c>
+      <c r="H78">
+        <v>0.1031988328564485</v>
+      </c>
+      <c r="I78">
+        <v>-0.03556812276566286</v>
+      </c>
+      <c r="J78">
+        <v>0.08124753618922055</v>
+      </c>
+      <c r="K78">
+        <v>0.09138664178325272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02346832455239537</v>
+        <v>0.05796287283924195</v>
       </c>
       <c r="C79">
-        <v>-0.1583963720351481</v>
+        <v>-0.1405806184720049</v>
       </c>
       <c r="D79">
-        <v>0.1034778932676009</v>
+        <v>-0.06683189570444147</v>
       </c>
       <c r="E79">
-        <v>-0.1040946567708091</v>
+        <v>-0.04912802638411966</v>
       </c>
       <c r="F79">
-        <v>0.03825562072552303</v>
+        <v>-0.0187253621285711</v>
       </c>
       <c r="G79">
-        <v>-0.297982150595758</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.04991848758308031</v>
+      </c>
+      <c r="H79">
+        <v>0.2627950908320103</v>
+      </c>
+      <c r="I79">
+        <v>-0.0408409898223788</v>
+      </c>
+      <c r="J79">
+        <v>0.05379814384837834</v>
+      </c>
+      <c r="K79">
+        <v>-0.05512865722738874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007987686616906639</v>
+        <v>0.02086160108046316</v>
       </c>
       <c r="C80">
-        <v>-0.05223348307212528</v>
+        <v>-0.04384023001768916</v>
       </c>
       <c r="D80">
-        <v>0.04640176578921121</v>
+        <v>-0.03771509354429953</v>
       </c>
       <c r="E80">
-        <v>0.03574049471341233</v>
+        <v>0.01950662329446562</v>
       </c>
       <c r="F80">
-        <v>0.00876233863436611</v>
+        <v>-0.05582963549489108</v>
       </c>
       <c r="G80">
-        <v>-0.002691406408804181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02218347446490743</v>
+      </c>
+      <c r="H80">
+        <v>-0.0718777365323693</v>
+      </c>
+      <c r="I80">
+        <v>0.04651710929134861</v>
+      </c>
+      <c r="J80">
+        <v>-0.01129659747618236</v>
+      </c>
+      <c r="K80">
+        <v>-0.03661421050477938</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.002736258055710793</v>
+        <v>0.01716129467179368</v>
       </c>
       <c r="C81">
-        <v>-0.07780281821509605</v>
+        <v>-0.09507672600285133</v>
       </c>
       <c r="D81">
-        <v>0.06855743335747162</v>
+        <v>-0.05647694911479756</v>
       </c>
       <c r="E81">
-        <v>-0.07458761186544462</v>
+        <v>-0.03015809835177779</v>
       </c>
       <c r="F81">
-        <v>0.03424469827408791</v>
+        <v>-0.01520817253743893</v>
       </c>
       <c r="G81">
-        <v>-0.1000208519027399</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03261866035711235</v>
+      </c>
+      <c r="H81">
+        <v>0.107557834575299</v>
+      </c>
+      <c r="I81">
+        <v>-0.04842049655381055</v>
+      </c>
+      <c r="J81">
+        <v>0.05446025897073308</v>
+      </c>
+      <c r="K81">
+        <v>-0.03972153327664229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01965328869476959</v>
+        <v>0.04716532723911555</v>
       </c>
       <c r="C82">
-        <v>-0.07838086335213916</v>
+        <v>-0.1059529903896755</v>
       </c>
       <c r="D82">
-        <v>0.0686586292458394</v>
+        <v>-0.0636644240052941</v>
       </c>
       <c r="E82">
-        <v>-0.0959802043181921</v>
+        <v>-0.03345815402839335</v>
       </c>
       <c r="F82">
-        <v>0.0428083849820796</v>
+        <v>-0.02247343918962662</v>
       </c>
       <c r="G82">
-        <v>-0.04776418202084585</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.06888564149749596</v>
+      </c>
+      <c r="H82">
+        <v>0.07828537157143389</v>
+      </c>
+      <c r="I82">
+        <v>-0.02781524593063375</v>
+      </c>
+      <c r="J82">
+        <v>-0.01873971929129507</v>
+      </c>
+      <c r="K82">
+        <v>-0.007420801331960147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.003210382656446287</v>
+        <v>-0.0002192099851351176</v>
       </c>
       <c r="C83">
-        <v>-0.02066963334985393</v>
+        <v>0.02399611122862927</v>
       </c>
       <c r="D83">
-        <v>-0.1364936266350929</v>
+        <v>0.05755906610015478</v>
       </c>
       <c r="E83">
-        <v>0.5827475067203834</v>
+        <v>-0.2196174426231469</v>
       </c>
       <c r="F83">
-        <v>0.6837963542491737</v>
+        <v>-0.9077243619185691</v>
       </c>
       <c r="G83">
-        <v>-0.1970609185234836</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.23052834832276</v>
+      </c>
+      <c r="H83">
+        <v>0.009422781855912284</v>
+      </c>
+      <c r="I83">
+        <v>0.02290741842631416</v>
+      </c>
+      <c r="J83">
+        <v>-0.1071258548589807</v>
+      </c>
+      <c r="K83">
+        <v>0.05222151856082101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.009959048361048675</v>
+        <v>0.01351795262177525</v>
       </c>
       <c r="C84">
-        <v>-0.09219632503336293</v>
+        <v>-0.06405035316889088</v>
       </c>
       <c r="D84">
-        <v>0.03473577330260114</v>
+        <v>-0.08753810395187375</v>
       </c>
       <c r="E84">
-        <v>0.0642755093629791</v>
+        <v>0.3766805071868338</v>
       </c>
       <c r="F84">
-        <v>-0.1398862581520207</v>
+        <v>-0.05809247271286155</v>
       </c>
       <c r="G84">
-        <v>0.01160035673503401</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04510430028324859</v>
+      </c>
+      <c r="H84">
+        <v>-0.1051414725530301</v>
+      </c>
+      <c r="I84">
+        <v>-0.4156599972327213</v>
+      </c>
+      <c r="J84">
+        <v>-0.7426031949869828</v>
+      </c>
+      <c r="K84">
+        <v>-0.1541217768636783</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.000881925333121566</v>
+        <v>0.03113782749285636</v>
       </c>
       <c r="C85">
-        <v>-0.1084085360660079</v>
+        <v>-0.1141025779953303</v>
       </c>
       <c r="D85">
-        <v>0.07273475293501154</v>
+        <v>-0.0802603654422676</v>
       </c>
       <c r="E85">
-        <v>-0.09267592374531933</v>
+        <v>-0.06740835432225113</v>
       </c>
       <c r="F85">
-        <v>0.03614376068608773</v>
+        <v>-0.01783268833687981</v>
       </c>
       <c r="G85">
-        <v>-0.2068294726851309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1099807417970883</v>
+      </c>
+      <c r="H85">
+        <v>0.2307223027397893</v>
+      </c>
+      <c r="I85">
+        <v>-0.027335631325926</v>
+      </c>
+      <c r="J85">
+        <v>-0.02730447671562</v>
+      </c>
+      <c r="K85">
+        <v>-0.06768033398906509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02053618345052247</v>
+        <v>0.01506714545972839</v>
       </c>
       <c r="C86">
-        <v>-0.07595928873488687</v>
+        <v>-0.07733447477547273</v>
       </c>
       <c r="D86">
-        <v>-0.009190740965411053</v>
+        <v>-0.03018995885221709</v>
       </c>
       <c r="E86">
-        <v>0.01429301265276808</v>
+        <v>0.0699425227156201</v>
       </c>
       <c r="F86">
-        <v>-0.005876456530775571</v>
+        <v>-0.01996633024805178</v>
       </c>
       <c r="G86">
-        <v>0.0925693727123746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05802361624195258</v>
+      </c>
+      <c r="H86">
+        <v>0.04151456239940778</v>
+      </c>
+      <c r="I86">
+        <v>0.05432322318065545</v>
+      </c>
+      <c r="J86">
+        <v>0.1083363672499484</v>
+      </c>
+      <c r="K86">
+        <v>-0.1203293795153522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.0260544200972505</v>
+        <v>0.02679283221872466</v>
       </c>
       <c r="C87">
-        <v>-0.1600307646700895</v>
+        <v>-0.11719456437921</v>
       </c>
       <c r="D87">
-        <v>0.03442787312493154</v>
+        <v>-0.02056406598971793</v>
       </c>
       <c r="E87">
-        <v>0.08875092648706773</v>
+        <v>-0.01269798856698686</v>
       </c>
       <c r="F87">
-        <v>-0.05633047434007622</v>
+        <v>0.007797379019464666</v>
       </c>
       <c r="G87">
-        <v>-0.009973287559800549</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.05787743839444378</v>
+      </c>
+      <c r="H87">
+        <v>0.01257409247789965</v>
+      </c>
+      <c r="I87">
+        <v>-0.04844257477969675</v>
+      </c>
+      <c r="J87">
+        <v>-0.004606525590035009</v>
+      </c>
+      <c r="K87">
+        <v>0.09268208419939086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.00812292836966748</v>
+        <v>0.03919836627707878</v>
       </c>
       <c r="C88">
-        <v>-0.03207974694503179</v>
+        <v>-0.05888342535271965</v>
       </c>
       <c r="D88">
-        <v>0.03709411492258952</v>
+        <v>-0.03853092256416181</v>
       </c>
       <c r="E88">
-        <v>-0.04604738103309845</v>
+        <v>-0.02451186559858683</v>
       </c>
       <c r="F88">
-        <v>0.008933578084159632</v>
+        <v>0.01398883391554511</v>
       </c>
       <c r="G88">
-        <v>0.01146827532333318</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01293194972122111</v>
+      </c>
+      <c r="H88">
+        <v>-0.01254681481144701</v>
+      </c>
+      <c r="I88">
+        <v>0.004907033728044352</v>
+      </c>
+      <c r="J88">
+        <v>0.0177324251046944</v>
+      </c>
+      <c r="K88">
+        <v>0.01640384796286433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.399510855475865</v>
+        <v>0.3893312199703763</v>
       </c>
       <c r="C89">
-        <v>0.07939735150444609</v>
+        <v>0.1211122581235575</v>
       </c>
       <c r="D89">
-        <v>0.06395434315829843</v>
+        <v>0.0387948156981363</v>
       </c>
       <c r="E89">
-        <v>0.07470603988585241</v>
+        <v>0.0213596738305664</v>
       </c>
       <c r="F89">
-        <v>-0.09861795143744852</v>
+        <v>0.04294791660888975</v>
       </c>
       <c r="G89">
-        <v>-0.02903904284524105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0438769983333927</v>
+      </c>
+      <c r="H89">
+        <v>-0.04157007725066152</v>
+      </c>
+      <c r="I89">
+        <v>-0.05454262121061578</v>
+      </c>
+      <c r="J89">
+        <v>-0.05826350475134081</v>
+      </c>
+      <c r="K89">
+        <v>0.7449722524239092</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.308835633993488</v>
+        <v>0.3161569351735325</v>
       </c>
       <c r="C90">
-        <v>0.02516626102383902</v>
+        <v>0.07885231005943369</v>
       </c>
       <c r="D90">
-        <v>0.00425845919633615</v>
+        <v>0.01971749954059414</v>
       </c>
       <c r="E90">
-        <v>0.06546604045799684</v>
+        <v>0.01324651177336358</v>
       </c>
       <c r="F90">
-        <v>0.04992771263990107</v>
+        <v>-0.006272487139948565</v>
       </c>
       <c r="G90">
-        <v>0.02412423530289785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02907713728371064</v>
+      </c>
+      <c r="H90">
+        <v>-0.002350088425126808</v>
+      </c>
+      <c r="I90">
+        <v>-0.01257033941403592</v>
+      </c>
+      <c r="J90">
+        <v>-0.01033736328857976</v>
+      </c>
+      <c r="K90">
+        <v>-0.09806052040947069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02345083047038991</v>
+        <v>0.05657010717726558</v>
       </c>
       <c r="C91">
-        <v>-0.07598027204957002</v>
+        <v>-0.07814298360107701</v>
       </c>
       <c r="D91">
-        <v>0.05670550722869438</v>
+        <v>-0.05284014963204928</v>
       </c>
       <c r="E91">
-        <v>-0.04966462183319705</v>
+        <v>-0.0559578842481886</v>
       </c>
       <c r="F91">
-        <v>0.04501890743081705</v>
+        <v>-0.03640247986400622</v>
       </c>
       <c r="G91">
-        <v>-0.0892837124208375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0279761644893881</v>
+      </c>
+      <c r="H91">
+        <v>0.08869906768097587</v>
+      </c>
+      <c r="I91">
+        <v>0.006187553507908883</v>
+      </c>
+      <c r="J91">
+        <v>-0.01774869737613975</v>
+      </c>
+      <c r="K91">
+        <v>-0.0086137121888742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3792297896340318</v>
+        <v>0.3496163323946033</v>
       </c>
       <c r="C92">
-        <v>0.07358335717799092</v>
+        <v>0.1260805343854579</v>
       </c>
       <c r="D92">
-        <v>-0.02367310912637657</v>
+        <v>0.05713840902340839</v>
       </c>
       <c r="E92">
-        <v>-0.01289338359814527</v>
+        <v>0.02442830504460637</v>
       </c>
       <c r="F92">
-        <v>-0.1256130006170673</v>
+        <v>0.04819111163977747</v>
       </c>
       <c r="G92">
-        <v>0.001229857666020348</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04642118551485429</v>
+      </c>
+      <c r="H92">
+        <v>0.005425374503601572</v>
+      </c>
+      <c r="I92">
+        <v>-0.0453601481960562</v>
+      </c>
+      <c r="J92">
+        <v>0.0507757004146875</v>
+      </c>
+      <c r="K92">
+        <v>-0.138190566179996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3055643572398793</v>
+        <v>0.306828284187526</v>
       </c>
       <c r="C93">
-        <v>0.07576514932610895</v>
+        <v>0.1225058820153272</v>
       </c>
       <c r="D93">
-        <v>0.01153723335796372</v>
+        <v>0.007677161134136453</v>
       </c>
       <c r="E93">
-        <v>0.06945643930635684</v>
+        <v>0.0436780562322085</v>
       </c>
       <c r="F93">
-        <v>-0.04049610157684128</v>
+        <v>-0.001294808825731443</v>
       </c>
       <c r="G93">
-        <v>0.004133126014276957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03480866993931023</v>
+      </c>
+      <c r="H93">
+        <v>0.03574293172991801</v>
+      </c>
+      <c r="I93">
+        <v>-0.01772354273141997</v>
+      </c>
+      <c r="J93">
+        <v>0.03221835245343142</v>
+      </c>
+      <c r="K93">
+        <v>-0.1157986734472221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03347333571960932</v>
+        <v>0.08366492354142599</v>
       </c>
       <c r="C94">
-        <v>-0.1811628561753876</v>
+        <v>-0.1629381602412555</v>
       </c>
       <c r="D94">
-        <v>0.1264399461757498</v>
+        <v>-0.1117808091425394</v>
       </c>
       <c r="E94">
-        <v>-0.1538337788551489</v>
+        <v>-0.07708654014725161</v>
       </c>
       <c r="F94">
-        <v>-0.03468947652663555</v>
+        <v>-0.03510670409756406</v>
       </c>
       <c r="G94">
-        <v>-0.6074229986980744</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1214580192325903</v>
+      </c>
+      <c r="H94">
+        <v>0.5621376287027785</v>
+      </c>
+      <c r="I94">
+        <v>0.09643498998082026</v>
+      </c>
+      <c r="J94">
+        <v>-0.1456091693558457</v>
+      </c>
+      <c r="K94">
+        <v>0.05451427076315565</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02554256627993494</v>
+        <v>0.04413922404662838</v>
       </c>
       <c r="C95">
-        <v>-0.1212275467953743</v>
+        <v>-0.1307010463645852</v>
       </c>
       <c r="D95">
-        <v>0.05371891166117153</v>
+        <v>-0.06460191891499947</v>
       </c>
       <c r="E95">
-        <v>-0.06414528271344801</v>
+        <v>-0.01607844225743893</v>
       </c>
       <c r="F95">
-        <v>0.09255242392854558</v>
+        <v>0.01844401341890265</v>
       </c>
       <c r="G95">
-        <v>0.03077086567493937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.08634715795307121</v>
+      </c>
+      <c r="H95">
+        <v>-0.04630717034779412</v>
+      </c>
+      <c r="I95">
+        <v>-0.08207113321100223</v>
+      </c>
+      <c r="J95">
+        <v>-0.07481375362341655</v>
+      </c>
+      <c r="K95">
+        <v>0.1557993270056492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.001063174129941941</v>
+        <v>0.02070486687144428</v>
       </c>
       <c r="C97">
-        <v>-0.001362253265467154</v>
+        <v>-0.02649529340631374</v>
       </c>
       <c r="D97">
-        <v>0.00155276700597477</v>
+        <v>0.008125169814649632</v>
       </c>
       <c r="E97">
-        <v>-0.004899101910350593</v>
+        <v>0.05018847270885806</v>
       </c>
       <c r="F97">
-        <v>0.0006592112843517833</v>
+        <v>0.004648278923161388</v>
       </c>
       <c r="G97">
-        <v>0.00672344290944689</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03418559091504827</v>
+      </c>
+      <c r="H97">
+        <v>-0.03102906387887459</v>
+      </c>
+      <c r="I97">
+        <v>0.02908515571591246</v>
+      </c>
+      <c r="J97">
+        <v>0.04470101248970472</v>
+      </c>
+      <c r="K97">
+        <v>0.04689399500413495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09289071231647802</v>
+        <v>0.1395146112730885</v>
       </c>
       <c r="C98">
-        <v>-0.1471549473200265</v>
+        <v>-0.1610763502083148</v>
       </c>
       <c r="D98">
-        <v>0.1506691590390713</v>
+        <v>-0.08994563135937243</v>
       </c>
       <c r="E98">
-        <v>-0.1312986184132904</v>
+        <v>-0.1551353573284785</v>
       </c>
       <c r="F98">
-        <v>0.1563670235598712</v>
+        <v>-0.01703514463137928</v>
       </c>
       <c r="G98">
-        <v>0.172615315684362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1879266021278848</v>
+      </c>
+      <c r="H98">
+        <v>-0.2560625706903637</v>
+      </c>
+      <c r="I98">
+        <v>0.3182122100892222</v>
+      </c>
+      <c r="J98">
+        <v>-0.130812408850529</v>
+      </c>
+      <c r="K98">
+        <v>-0.131414255972429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03030582246855892</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.06057243020662576</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.00464337364536592</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.7539530275181101</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.2973024467059251</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.3838627278735028</v>
+      </c>
+      <c r="H99">
+        <v>0.01828227459610744</v>
+      </c>
+      <c r="I99">
+        <v>0.2579021892090876</v>
+      </c>
+      <c r="J99">
+        <v>0.2467272341390885</v>
+      </c>
+      <c r="K99">
+        <v>0.08738658781608601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01069530377143979</v>
+        <v>0.01702207207418993</v>
       </c>
       <c r="C101">
-        <v>-0.07926299305244779</v>
+        <v>-0.08172391176048648</v>
       </c>
       <c r="D101">
-        <v>0.04718340858484016</v>
+        <v>-0.04790408391367065</v>
       </c>
       <c r="E101">
-        <v>0.01176008141098898</v>
+        <v>-0.01742729744368596</v>
       </c>
       <c r="F101">
-        <v>0.04126080602449085</v>
+        <v>-0.04003784024047217</v>
       </c>
       <c r="G101">
-        <v>0.09912042576834215</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.008555050632423396</v>
+      </c>
+      <c r="H101">
+        <v>-0.1695766028990474</v>
+      </c>
+      <c r="I101">
+        <v>-0.2169756007519372</v>
+      </c>
+      <c r="J101">
+        <v>0.1232354556159224</v>
+      </c>
+      <c r="K101">
+        <v>-0.001004251899717186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004434933368330168</v>
+        <v>0.001992708746202673</v>
       </c>
       <c r="C102">
-        <v>-0.01514125992625964</v>
+        <v>-0.006138476919401396</v>
       </c>
       <c r="D102">
-        <v>-0.003325952912291186</v>
+        <v>0.002869598810630586</v>
       </c>
       <c r="E102">
-        <v>-0.01867769100419335</v>
+        <v>-0.004053857359137157</v>
       </c>
       <c r="F102">
-        <v>0.01564218069635346</v>
+        <v>-0.0005019844931104715</v>
       </c>
       <c r="G102">
-        <v>-0.0101445401630874</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.002905706669835011</v>
+      </c>
+      <c r="H102">
+        <v>0.002352951470208672</v>
+      </c>
+      <c r="I102">
+        <v>-0.005026712664227976</v>
+      </c>
+      <c r="J102">
+        <v>0.005213281266658903</v>
+      </c>
+      <c r="K102">
+        <v>0.01411378367956586</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
